--- a/한이음 제출서류/한이음_장비신청(1차)/실습장비 지원신청서(양식)_2019년도.xlsx
+++ b/한이음 제출서류/한이음_장비신청(1차)/실습장비 지원신청서(양식)_2019년도.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12660" tabRatio="695" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12660" tabRatio="695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(양식1)실습장비 지원 신청서" sheetId="2" r:id="rId1"/>
@@ -2402,7 +2402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>(단위:  원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2924,24 +2924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://item.gmarket.co.kr/Item?goodscode=1527057090&amp;pos_shop_cd=SH&amp;pos_class_cd=111111111&amp;pos_class_kind=T&amp;keyword_seqno=19055163022&amp;search_keyword=%EC%8A%A4%ED%8B%B0%EB%A1%9C%ED%8F%BC%EC%95%84%EC%9D%B4%EC%8A%A4%EB%B0%95%EC%8A%A4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스티로폼 290*261*195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스티로폼
- 290*261*195</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장비는 냉장고의 틀이다. 
-크기는 라즈베리 파이와 냉장 시스템으로 냉장  시스템의 기능보다 큰 크기로 활용 예정이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W93 LCD 디지털온도계 열전소자 냉장고 어항 수족관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2952,11 +2934,6 @@
   <si>
     <t>W93 LCD 디지털온도계
 열전소자 냉장고 어항 수족관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장비는 냉장고의 
-작동 상태를 알기 위해 필요한 장비이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2978,10 +2955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.icbanq.com/Login/Login.aspx?prepage=https://www.icbanq.com/shop/order_step1_S.asp?social_type=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DC 아답터 12V 6A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3000,66 +2973,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">해당 장비는 냉장고 제어하기 위한 장비이다.   
+    <t xml:space="preserve"> 
+라즈베리파이3 B+, 7인치 터치스크린, 32GB Micro SD 세트
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사용의 어려움과 신청장비의 부족으로 구매 안할수 있다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">해당 장비는 냉장고의 파워 공급 장치이다.
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.icbanq.com/P008359419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 라즈베리파이3 B+, 7인치 터치스크린, 32GB Micro SD 세트
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장비는 라즈베리 파이, 터치 스크린, 32GB Micro SD카드 세트이다.
+해당 장비는 사용자가 냉장고의 예약 시스템의 접근을 위해 필요한 장비이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.icbanq.com/P005652432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P65 5MP 1080p HD 나이트비전 라즈베리파이 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://scipia.com/product/p65-5mp-1080p-hd-%EB%82%98%EC%9D%B4%ED%8A%B8%EB%B9%84%EC%A0%84-%EB%9D%BC%EC%A6%88%EB%B2%A0%EB%A6%AC%ED%8C%8C%EC%9D%B4-%EC%B9%B4%EB%A9%94%EB%9D%BC/524/category/98/display/1/#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W93 LCD 디지털온도계 열전소자 냉장고 어항 수족관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장비는 냉장고 내부 찰영을 위해 필요하다.
+전원 공급의 어려움의 이유로 
+냉장고의 조명을 따로 설치할 예정이 없기 때문에 
+어두운 환경에서의 찰영이 필요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장비는 냉장고 제어하기 위한 장비이다.   
+냉장고의 온도를 제어할 떄 사용할 예정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C32 OP앰프전원12V모듈 OPAMP 2.8~5.5V입력DC컨버터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://scipia.com/product/c32-op%EC%95%B0%ED%94%84%EC%A0%84%EC%9B%9012v%EB%AA%A8%EB%93%88-opamp-2855v%EC%9E%85%EB%A0%A5dc%EC%BB%A8%EB%B2%84%ED%84%B0/783/category/88/display/1/#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C32 OP앰프전원12V모듈
+ OPAMP 2.8~5.5V입력DC컨버터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당장비는 12V 컨버터이다.
+ 라즈베리파이의 전압이 3.3V에서 5V인데 반면에 도어락의 필요 전압이 12V이어서 작동하기위해 전압을 올리기 위해 필요하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B96 소형 EM락 전자석 도어락 출입통제 전자자물쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://scipia.com/product/b96-%EC%86%8C%ED%98%95-em%EB%9D%BD-%EC%A0%84%EC%9E%90%EC%84%9D-%EB%8F%84%EC%96%B4%EB%9D%BD-%EC%B6%9C%EC%9E%85%ED%86%B5%EC%A0%9C-%EC%A0%84%EC%9E%90%EC%9E%90%EB%AC%BC%EC%87%A0/463/category/79/display/1/#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장비는 냉장고의 보안을 담당할 물품이다.
+라즈베리 파이의 GPIO의 출력을 이용하여 사용할 예정이다.* 사양
+- 사용 전압 : DC 12V
+- 소비 전류 : 1.5A
+- 사용 온도 : -40 ~ + 50 ℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 장비는 냉장 모듈의 전원과 파워의 연결을 위해 사용하는 전원 어뎁터이다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 장비는 냉장고의 파워 공급 장치이다.
 정격입력 : AC100-240V,50/60Hz,1.8A / TYPE : DESK / DC 
 정격 출력: DC 12.0v 4.0A-6-0A /
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-충전기 220v 이것 있는지 확인해  보아야함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장비는 냉장 모듈의 전원과 파워의 연결을 위해 사용하는 전원 어뎁터이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-라즈베리파이3 B+, 7인치 터치스크린, 32GB Micro SD 세트
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.icbanq.com/P008359419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 라즈베리파이3 B+, 7인치 터치스크린, 32GB Micro SD 세트
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 장비는 라즈베리 파이, 터치 스크린, 32GB Micro SD카드 세트이다.
-해당 장비는 사용자가 냉장고의 예약 시스템의 접근을 위해 필요한 장비이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장비는 냉장고의 
+작동 상태를 파악하기 위해 필요한 장비이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3070,7 +3083,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3411,14 +3424,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3693,7 +3698,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3802,6 +3807,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3949,9 +3957,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3988,6 +4002,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4024,6 +4041,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4039,23 +4059,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4162,44 +4170,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1160210</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4" descr="스티로폼 290261195.PNG"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2218765" y="5681382"/>
-          <a:ext cx="2370445" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
@@ -4218,7 +4188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4256,7 +4226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4294,7 +4264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4314,19 +4284,57 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
+      <xdr:rowOff>33620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>867598</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
+      <xdr:colOff>868557</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="그림 9" descr="라즈베리파이 모니터 sd카드 세트.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2375648" y="10992973"/>
+          <a:ext cx="1921909" cy="1299880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8" descr="문서.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4339,8 +4347,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2308413" y="10970561"/>
-          <a:ext cx="1988185" cy="1344706"/>
+          <a:off x="2622177" y="5614147"/>
+          <a:ext cx="1221441" cy="1221441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10" descr="12V 컨버터.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2577354" y="12337676"/>
+          <a:ext cx="1333499" cy="1333499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>33615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11" descr="도어락.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2554941" y="13659969"/>
+          <a:ext cx="1367117" cy="1367117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,7 +4726,7 @@
   </sheetPr>
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -4673,76 +4757,76 @@
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:10" ht="22.5" customHeight="1">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="21" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="2:10" ht="184.5" customHeight="1">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="2:10" ht="24" customHeight="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="64" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="65" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="23" t="s">
@@ -4751,234 +4835,234 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B8" s="68"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="2:10" ht="24" customHeight="1">
-      <c r="B10" s="68"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="68"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="2:10" ht="27" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="2:10" ht="15" customHeight="1">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="2:10" ht="15" customHeight="1">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="49"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1">
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1">
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1">
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1">
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1">
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1">
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1">
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
@@ -5018,8 +5102,8 @@
   </sheetPr>
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5047,35 +5131,35 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="2:12" ht="38.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1">
       <c r="B4" s="1"/>
@@ -5091,7 +5175,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="39.75" customHeight="1" thickTop="1">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="93" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -5100,10 +5184,10 @@
       <c r="D5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="92"/>
       <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
@@ -5116,23 +5200,23 @@
       <c r="J5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="84"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="91"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="96"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="16">
         <v>1</v>
       </c>
@@ -5146,23 +5230,23 @@
         <f t="shared" ref="J6:J15" si="0">G6*H6+I6</f>
         <v>39400</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="85"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B7" s="91"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="16">
         <v>1</v>
       </c>
@@ -5176,53 +5260,51 @@
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="K7" s="118" t="s">
+      <c r="K7" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="91"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="96"/>
+      <c r="E8" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="99"/>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="17">
-        <v>2200</v>
-      </c>
-      <c r="I8" s="17">
-        <v>3000</v>
-      </c>
+        <v>51000</v>
+      </c>
+      <c r="I8" s="17"/>
       <c r="J8" s="17">
         <f t="shared" si="0"/>
-        <v>5200</v>
-      </c>
-      <c r="K8" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="82"/>
+        <v>51000</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="91"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="15">
         <v>4</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="96"/>
+      <c r="E9" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="99"/>
       <c r="G9" s="16">
         <v>1</v>
       </c>
@@ -5236,23 +5318,23 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="K9" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="82"/>
+      <c r="K9" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="83"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B10" s="91"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="15">
         <v>5</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="96"/>
+      <c r="E10" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="99"/>
       <c r="G10" s="16">
         <v>1</v>
       </c>
@@ -5266,25 +5348,25 @@
         <f t="shared" si="0"/>
         <v>18710</v>
       </c>
-      <c r="K10" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="82"/>
+      <c r="K10" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="83"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="91"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="15">
         <v>6</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="96"/>
+      <c r="E11" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="99"/>
       <c r="G11" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="17">
         <v>3520</v>
@@ -5294,25 +5376,25 @@
       </c>
       <c r="J11" s="17">
         <f t="shared" si="0"/>
-        <v>5720</v>
-      </c>
-      <c r="K11" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="82"/>
+        <v>12760</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="83"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B12" s="91"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="15">
         <v>7</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="96"/>
+      <c r="E12" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="99"/>
       <c r="G12" s="16">
         <v>1</v>
       </c>
@@ -5326,55 +5408,79 @@
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="K12" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="82"/>
+      <c r="K12" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="83"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B13" s="91"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="15">
         <v>8</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="D13" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="97"/>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9900</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2500</v>
+      </c>
       <c r="J13" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
+        <v>12400</v>
+      </c>
+      <c r="K13" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="78"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B14" s="91"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="15">
         <v>9</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="D14" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>19900</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2500</v>
+      </c>
       <c r="J14" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
+        <v>22400</v>
+      </c>
+      <c r="K14" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="78"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B15" s="91"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="15">
         <v>10</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -5382,118 +5488,118 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="33"/>
       <c r="J16" s="10">
         <f>SUM(J6:J15)</f>
-        <v>223230</v>
-      </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="79"/>
+        <v>310870</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="2:12" ht="12" customHeight="1"/>
     <row r="18" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
     </row>
     <row r="21" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
     </row>
     <row r="22" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
     </row>
     <row r="23" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
     </row>
     <row r="24" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
@@ -5536,15 +5642,17 @@
   <hyperlinks>
     <hyperlink ref="K6" r:id="rId1"/>
     <hyperlink ref="K7" r:id="rId2"/>
-    <hyperlink ref="K8" r:id="rId3"/>
-    <hyperlink ref="K9" r:id="rId4"/>
-    <hyperlink ref="K10" r:id="rId5"/>
-    <hyperlink ref="K11" r:id="rId6"/>
-    <hyperlink ref="K12" r:id="rId7"/>
+    <hyperlink ref="K9" r:id="rId3"/>
+    <hyperlink ref="K10" r:id="rId4"/>
+    <hyperlink ref="K11" r:id="rId5"/>
+    <hyperlink ref="K12" r:id="rId6"/>
+    <hyperlink ref="K8" r:id="rId7" location="none"/>
+    <hyperlink ref="K13" r:id="rId8" location="none"/>
+    <hyperlink ref="K14" r:id="rId9" location="none"/>
   </hyperlinks>
   <pageMargins left="0.17" right="0.17" top="0.52" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -5556,8 +5664,8 @@
   </sheetPr>
   <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5574,10 +5682,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="112"/>
+      <c r="C2" s="117"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
@@ -5591,16 +5699,16 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1">
@@ -5626,35 +5734,35 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="29.25" customHeight="1">
@@ -5671,667 +5779,675 @@
       <c r="B9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100" t="s">
+      <c r="F9" s="104"/>
+      <c r="G9" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1">
-      <c r="B10" s="113">
+      <c r="B10" s="118">
         <v>1</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="101" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="103"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1">
-      <c r="B11" s="99"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1">
-      <c r="B12" s="99"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="106"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1">
-      <c r="B13" s="99"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1">
-      <c r="B14" s="99"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1">
-      <c r="B15" s="114"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="109"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1">
-      <c r="B16" s="99">
+      <c r="B16" s="103">
         <v>2</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="99"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1">
-      <c r="B18" s="99"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1">
-      <c r="B19" s="99"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1">
-      <c r="B20" s="99"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1">
-      <c r="B21" s="99"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1">
-      <c r="B22" s="99">
+      <c r="B22" s="103">
         <v>3</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+    </row>
+    <row r="23" spans="2:9" ht="18" customHeight="1">
+      <c r="B23" s="103"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" customHeight="1">
+      <c r="B24" s="103"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+    </row>
+    <row r="25" spans="2:9" ht="18" customHeight="1">
+      <c r="B25" s="103"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+    </row>
+    <row r="26" spans="2:9" ht="18" customHeight="1">
+      <c r="B26" s="103"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+    </row>
+    <row r="27" spans="2:9" ht="18" customHeight="1">
+      <c r="B27" s="103"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+    </row>
+    <row r="28" spans="2:9" ht="18" customHeight="1">
+      <c r="B28" s="103">
+        <v>4</v>
+      </c>
+      <c r="C28" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-    </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1">
-      <c r="B23" s="99"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-    </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1">
-      <c r="B24" s="99"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1">
-      <c r="B25" s="99"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-    </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1">
-      <c r="B26" s="99"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-    </row>
-    <row r="27" spans="2:9" ht="18" customHeight="1">
-      <c r="B27" s="99"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-    </row>
-    <row r="28" spans="2:9" ht="18" customHeight="1">
-      <c r="B28" s="99">
-        <v>4</v>
-      </c>
-      <c r="C28" s="119" t="s">
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+    </row>
+    <row r="29" spans="2:9" ht="18" customHeight="1">
+      <c r="B29" s="103"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+    </row>
+    <row r="30" spans="2:9" ht="18" customHeight="1">
+      <c r="B30" s="103"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+    </row>
+    <row r="31" spans="2:9" ht="18" customHeight="1">
+      <c r="B31" s="103"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+    </row>
+    <row r="32" spans="2:9" ht="18" customHeight="1">
+      <c r="B32" s="103"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" customHeight="1">
+      <c r="B33" s="103"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1">
+      <c r="B34" s="103">
+        <v>5</v>
+      </c>
+      <c r="C34" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-    </row>
-    <row r="29" spans="2:9" ht="18" customHeight="1">
-      <c r="B29" s="99"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" customHeight="1">
-      <c r="B30" s="99"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-    </row>
-    <row r="31" spans="2:9" ht="18" customHeight="1">
-      <c r="B31" s="99"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-    </row>
-    <row r="32" spans="2:9" ht="18" customHeight="1">
-      <c r="B32" s="99"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-    </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1">
-      <c r="B33" s="99"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-    </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1">
-      <c r="B34" s="99">
-        <v>5</v>
-      </c>
-      <c r="C34" s="119" t="s">
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1">
+      <c r="B35" s="103"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1">
+      <c r="B36" s="103"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1">
+      <c r="B37" s="103"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+    </row>
+    <row r="38" spans="2:9" ht="18" customHeight="1">
+      <c r="B38" s="103"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1">
+      <c r="B39" s="103"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+    </row>
+    <row r="40" spans="2:9" ht="18" customHeight="1">
+      <c r="B40" s="103">
+        <v>6</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="114" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" customHeight="1">
+      <c r="B41" s="103"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1">
+      <c r="B42" s="103"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1">
+      <c r="B43" s="103"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" customHeight="1">
+      <c r="B44" s="103"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+    </row>
+    <row r="45" spans="2:9" ht="18" customHeight="1">
+      <c r="B45" s="103"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" customHeight="1">
+      <c r="B46" s="103">
+        <v>7</v>
+      </c>
+      <c r="C46" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-    </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1">
-      <c r="B35" s="99"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1">
-      <c r="B36" s="99"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-    </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1">
-      <c r="B37" s="99"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-    </row>
-    <row r="38" spans="2:9" ht="18" customHeight="1">
-      <c r="B38" s="99"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-    </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="99"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-    </row>
-    <row r="40" spans="2:9" ht="18" customHeight="1">
-      <c r="B40" s="99">
-        <v>6</v>
-      </c>
-      <c r="C40" s="119" t="s">
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-    </row>
-    <row r="41" spans="2:9" ht="18" customHeight="1">
-      <c r="B41" s="99"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-    </row>
-    <row r="42" spans="2:9" ht="18" customHeight="1">
-      <c r="B42" s="99"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-    </row>
-    <row r="43" spans="2:9" ht="18" customHeight="1">
-      <c r="B43" s="99"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-    </row>
-    <row r="44" spans="2:9" ht="18" customHeight="1">
-      <c r="B44" s="99"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-    </row>
-    <row r="45" spans="2:9" ht="18" customHeight="1">
-      <c r="B45" s="99"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-    </row>
-    <row r="46" spans="2:9" ht="18" customHeight="1">
-      <c r="B46" s="99">
-        <v>7</v>
-      </c>
-      <c r="C46" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="120" t="s">
-        <v>80</v>
-      </c>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
     </row>
     <row r="47" spans="2:9" ht="18" customHeight="1">
-      <c r="B47" s="99"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
     </row>
     <row r="48" spans="2:9" ht="18" customHeight="1">
-      <c r="B48" s="99"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
     </row>
     <row r="49" spans="2:9" ht="18" customHeight="1">
-      <c r="B49" s="99"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
     </row>
     <row r="50" spans="2:9" ht="18" customHeight="1">
-      <c r="B50" s="99"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
     </row>
     <row r="51" spans="2:9" ht="18" customHeight="1">
-      <c r="B51" s="99"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
     </row>
     <row r="52" spans="2:9" ht="18" customHeight="1">
-      <c r="B52" s="99">
+      <c r="B52" s="103">
         <v>8</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
+      <c r="C52" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
     </row>
     <row r="53" spans="2:9" ht="18" customHeight="1">
-      <c r="B53" s="99"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
     </row>
     <row r="54" spans="2:9" ht="18" customHeight="1">
-      <c r="B54" s="99"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
     </row>
     <row r="55" spans="2:9" ht="18" customHeight="1">
-      <c r="B55" s="99"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
     </row>
     <row r="56" spans="2:9" ht="18" customHeight="1">
-      <c r="B56" s="99"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
     </row>
     <row r="57" spans="2:9" ht="18" customHeight="1">
-      <c r="B57" s="99"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
     </row>
     <row r="58" spans="2:9" ht="18" customHeight="1">
-      <c r="B58" s="99">
+      <c r="B58" s="103">
         <v>9</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
+      <c r="C58" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
     </row>
     <row r="59" spans="2:9" ht="18" customHeight="1">
-      <c r="B59" s="99"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
     </row>
     <row r="60" spans="2:9" ht="18" customHeight="1">
-      <c r="B60" s="99"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
     </row>
     <row r="61" spans="2:9" ht="18" customHeight="1">
-      <c r="B61" s="99"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
     </row>
     <row r="62" spans="2:9" ht="18" customHeight="1">
-      <c r="B62" s="99"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
     </row>
     <row r="63" spans="2:9" ht="18" customHeight="1">
-      <c r="B63" s="99"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
     </row>
     <row r="64" spans="2:9" ht="18" customHeight="1">
-      <c r="B64" s="99">
+      <c r="B64" s="103">
         <v>10</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
     </row>
     <row r="65" spans="2:9" ht="18" customHeight="1">
-      <c r="B65" s="99"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="100"/>
     </row>
     <row r="66" spans="2:9" ht="18" customHeight="1">
-      <c r="B66" s="99"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="100"/>
+      <c r="H66" s="100"/>
+      <c r="I66" s="100"/>
     </row>
     <row r="67" spans="2:9" ht="18" customHeight="1">
-      <c r="B67" s="99"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
     </row>
     <row r="68" spans="2:9" ht="18" customHeight="1">
-      <c r="B68" s="99"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="100"/>
     </row>
     <row r="69" spans="2:9" ht="18" customHeight="1">
-      <c r="B69" s="99"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/한이음 제출서류/한이음_장비신청(1차)/실습장비 지원신청서(양식)_2019년도.xlsx
+++ b/한이음 제출서류/한이음_장비신청(1차)/실습장비 지원신청서(양식)_2019년도.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12660" tabRatio="695" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12660" tabRatio="695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(양식1)실습장비 지원 신청서" sheetId="2" r:id="rId1"/>
@@ -2997,15 +2997,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P65 5MP 1080p HD 나이트비전 라즈베리파이 카메라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://scipia.com/product/p65-5mp-1080p-hd-%EB%82%98%EC%9D%B4%ED%8A%B8%EB%B9%84%EC%A0%84-%EB%9D%BC%EC%A6%88%EB%B2%A0%EB%A6%AC%ED%8C%8C%EC%9D%B4-%EC%B9%B4%EB%A9%94%EB%9D%BC/524/category/98/display/1/#none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W93 LCD 디지털온도계 열전소자 냉장고 어항 수족관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3073,6 +3065,15 @@
   <si>
     <t>해당 장비는 냉장고의 
 작동 상태를 파악하기 위해 필요한 장비이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P65 5MP 1080p HD 나이트비전 라즈베리파이 카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P65 5MP 1080p HD 
+나이트비전 라즈베리파이 카메라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5102,8 +5103,8 @@
   </sheetPr>
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5274,7 +5275,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F8" s="99"/>
       <c r="G8" s="16">
@@ -5289,7 +5290,7 @@
         <v>51000</v>
       </c>
       <c r="K8" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="83"/>
     </row>
@@ -5419,10 +5420,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="97"/>
       <c r="G13" s="6">
@@ -5439,7 +5440,7 @@
         <v>12400</v>
       </c>
       <c r="K13" s="77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L13" s="78"/>
     </row>
@@ -5449,10 +5450,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" s="97"/>
       <c r="G14" s="6">
@@ -5469,7 +5470,7 @@
         <v>22400</v>
       </c>
       <c r="K14" s="77" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L14" s="78"/>
     </row>
@@ -5664,8 +5665,8 @@
   </sheetPr>
   <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5870,7 +5871,7 @@
       <c r="E16" s="65"/>
       <c r="F16" s="65"/>
       <c r="G16" s="114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" s="100"/>
       <c r="I16" s="100"/>
@@ -5930,13 +5931,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="101" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D22" s="65"/>
       <c r="E22" s="65"/>
       <c r="F22" s="65"/>
       <c r="G22" s="114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" s="100"/>
       <c r="I22" s="100"/>
@@ -6002,7 +6003,7 @@
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
       <c r="G28" s="114" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H28" s="100"/>
       <c r="I28" s="100"/>
@@ -6068,7 +6069,7 @@
       <c r="E34" s="65"/>
       <c r="F34" s="65"/>
       <c r="G34" s="114" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="100"/>
       <c r="I34" s="100"/>
@@ -6134,7 +6135,7 @@
       <c r="E40" s="65"/>
       <c r="F40" s="65"/>
       <c r="G40" s="114" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H40" s="100"/>
       <c r="I40" s="100"/>
@@ -6260,13 +6261,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="101" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="65"/>
       <c r="E52" s="65"/>
       <c r="F52" s="65"/>
       <c r="G52" s="114" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H52" s="100"/>
       <c r="I52" s="100"/>
@@ -6326,13 +6327,13 @@
         <v>9</v>
       </c>
       <c r="C58" s="65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D58" s="65"/>
       <c r="E58" s="65"/>
       <c r="F58" s="65"/>
       <c r="G58" s="114" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H58" s="100"/>
       <c r="I58" s="100"/>
